--- a/电子签约平台/生产环境部署/易签云-生产环境.xlsx
+++ b/电子签约平台/生产环境部署/易签云-生产环境.xlsx
@@ -244,10 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10.1.0.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>47.93.215.172</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,6 +275,10 @@
     <t>101.201.56.86:22
 登录方式:
 root:sZfeLO7hn544</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.0.15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -350,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -362,9 +362,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -685,7 +682,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -750,41 +747,41 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:14" s="6" customFormat="1">
+      <c r="A2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>2</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <v>16384</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -826,41 +823,41 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:14" s="6" customFormat="1">
+      <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="6">
         <v>4</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="6">
         <v>8192</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -943,44 +940,44 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="7" customFormat="1" ht="27">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:14" s="6" customFormat="1" ht="27">
+      <c r="A7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="F7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>4</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <v>8192</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1001,7 +998,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>49</v>
@@ -1029,7 +1026,7 @@
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1066,79 +1063,79 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="7" customFormat="1">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:14" s="6" customFormat="1">
+      <c r="A10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="6">
+        <v>8</v>
+      </c>
+      <c r="K10" s="6">
+        <v>16384</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="6" customFormat="1">
+      <c r="A11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="7">
+      <c r="G11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="6">
         <v>8</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K11" s="6">
         <v>16384</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="7" t="s">
+      <c r="L11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="7" customFormat="1">
-      <c r="A11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="7">
-        <v>8</v>
-      </c>
-      <c r="K11" s="7">
-        <v>16384</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1163,7 +1160,7 @@
         <v>53</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>56</v>
@@ -1185,7 +1182,7 @@
         <v>58</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
